--- a/excel_data/studentdetails.xlsx
+++ b/excel_data/studentdetails.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hafee\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\E Drive\Django_projects\dev\semester_preregistration_portal\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11323" windowHeight="6661"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11324" windowHeight="6659"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>SL</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -77,12 +74,6 @@
     <t>farhat35-1721@diu.edu.bd</t>
   </si>
   <si>
-    <t>AKS</t>
-  </si>
-  <si>
-    <t>TRK</t>
-  </si>
-  <si>
     <t>163-35-1725</t>
   </si>
   <si>
@@ -93,6 +84,9 @@
   </si>
   <si>
     <t>nasim35-1725@diu.edu.bd</t>
+  </si>
+  <si>
+    <t>HRS</t>
   </si>
 </sst>
 </file>
@@ -137,9 +131,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -423,48 +416,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" customWidth="1"/>
+    <col min="4" max="4" width="10.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -472,23 +461,19 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <f>A2+1</f>
-        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -496,48 +481,41 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <f>A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
